--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>23.76685996111977</v>
+        <v>75.40170750325734</v>
       </c>
       <c r="R2">
-        <v>23.76685996111977</v>
+        <v>678.615367529316</v>
       </c>
       <c r="S2">
-        <v>0.002251900052086495</v>
+        <v>0.004991858119829724</v>
       </c>
       <c r="T2">
-        <v>0.002251900052086495</v>
+        <v>0.004991858119829724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>69.08019852396409</v>
+        <v>86.47645512700889</v>
       </c>
       <c r="R3">
-        <v>69.08019852396409</v>
+        <v>778.28809614308</v>
       </c>
       <c r="S3">
-        <v>0.006545319950079381</v>
+        <v>0.00572504534703278</v>
       </c>
       <c r="T3">
-        <v>0.006545319950079381</v>
+        <v>0.005725045347032781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>3.796243038559259</v>
+        <v>5.806840071187557</v>
       </c>
       <c r="R4">
-        <v>3.796243038559259</v>
+        <v>52.261560640688</v>
       </c>
       <c r="S4">
-        <v>0.000359692441923313</v>
+        <v>0.0003844332273066626</v>
       </c>
       <c r="T4">
-        <v>0.000359692441923313</v>
+        <v>0.0003844332273066626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>6.278363847099328</v>
+        <v>9.606820206574222</v>
       </c>
       <c r="R5">
-        <v>6.278363847099328</v>
+        <v>86.461381859168</v>
       </c>
       <c r="S5">
-        <v>0.0005948723515613638</v>
+        <v>0.0006360052715233288</v>
       </c>
       <c r="T5">
-        <v>0.0005948723515613638</v>
+        <v>0.0006360052715233289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>2357.544407377311</v>
+        <v>6186.601944841056</v>
       </c>
       <c r="R6">
-        <v>2357.544407377311</v>
+        <v>55679.41750356951</v>
       </c>
       <c r="S6">
-        <v>0.223376347672941</v>
+        <v>0.4095747984377551</v>
       </c>
       <c r="T6">
-        <v>0.223376347672941</v>
+        <v>0.4095747984377552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>6852.383358891671</v>
+        <v>7095.26910181181</v>
       </c>
       <c r="R7">
-        <v>6852.383358891671</v>
+        <v>63857.4219163063</v>
       </c>
       <c r="S7">
-        <v>0.6492604604919699</v>
+        <v>0.4697317587499748</v>
       </c>
       <c r="T7">
-        <v>0.6492604604919699</v>
+        <v>0.4697317587499749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>376.5668480918991</v>
+        <v>476.4428985409645</v>
       </c>
       <c r="R8">
-        <v>376.5668480918991</v>
+        <v>4287.98608686868</v>
       </c>
       <c r="S8">
-        <v>0.03567955153602217</v>
+        <v>0.03154219487157078</v>
       </c>
       <c r="T8">
-        <v>0.03567955153602217</v>
+        <v>0.03154219487157078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>622.7798539404339</v>
+        <v>788.2258179784976</v>
       </c>
       <c r="R9">
-        <v>622.7798539404339</v>
+        <v>7094.032361806479</v>
       </c>
       <c r="S9">
-        <v>0.05900813097822482</v>
+        <v>0.05218332024596938</v>
       </c>
       <c r="T9">
-        <v>0.05900813097822482</v>
+        <v>0.0521833202459694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>19.21659203815917</v>
+        <v>66.12577830102067</v>
       </c>
       <c r="R10">
-        <v>19.21659203815917</v>
+        <v>595.132004709186</v>
       </c>
       <c r="S10">
-        <v>0.001820764067379842</v>
+        <v>0.00437775899607778</v>
       </c>
       <c r="T10">
-        <v>0.001820764067379842</v>
+        <v>0.004377758996077781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>55.85449635003103</v>
+        <v>75.83810883513112</v>
       </c>
       <c r="R11">
-        <v>55.85449635003103</v>
+        <v>682.54297951618</v>
       </c>
       <c r="S11">
-        <v>0.005292190194483468</v>
+        <v>0.005020749422217332</v>
       </c>
       <c r="T11">
-        <v>0.005292190194483468</v>
+        <v>0.005020749422217334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>3.069435923341804</v>
+        <v>5.092481747316446</v>
       </c>
       <c r="R12">
-        <v>3.069435923341804</v>
+        <v>45.832335725848</v>
       </c>
       <c r="S12">
-        <v>0.0002908277713992095</v>
+        <v>0.000337140194860018</v>
       </c>
       <c r="T12">
-        <v>0.0002908277713992095</v>
+        <v>0.0003371401948600181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>5.076343989664799</v>
+        <v>8.424987764769778</v>
       </c>
       <c r="R13">
-        <v>5.076343989664799</v>
+        <v>75.82488988292801</v>
       </c>
       <c r="S13">
-        <v>0.0004809814722447893</v>
+        <v>0.0005577638090120873</v>
       </c>
       <c r="T13">
-        <v>0.0004809814722447893</v>
+        <v>0.0005577638090120874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>36.6526628720303</v>
+        <v>95.95770285147667</v>
       </c>
       <c r="R14">
-        <v>36.6526628720303</v>
+        <v>863.6193256632899</v>
       </c>
       <c r="S14">
-        <v>0.003472824494512863</v>
+        <v>0.006352737278776594</v>
       </c>
       <c r="T14">
-        <v>0.003472824494512863</v>
+        <v>0.006352737278776594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>106.5337714689209</v>
+        <v>110.0516455064111</v>
       </c>
       <c r="R15">
-        <v>106.5337714689209</v>
+        <v>990.4648095576998</v>
       </c>
       <c r="S15">
-        <v>0.01009403033940083</v>
+        <v>0.007285805831360892</v>
       </c>
       <c r="T15">
-        <v>0.01009403033940083</v>
+        <v>0.007285805831360893</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>5.854472004304633</v>
+        <v>7.389899413524445</v>
       </c>
       <c r="R16">
-        <v>5.854472004304633</v>
+        <v>66.50909472172</v>
       </c>
       <c r="S16">
-        <v>0.0005547087765485105</v>
+        <v>0.0004892373211910793</v>
       </c>
       <c r="T16">
-        <v>0.0005547087765485105</v>
+        <v>0.0004892373211910793</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>9.682337248257713</v>
+        <v>12.22582921865778</v>
       </c>
       <c r="R17">
-        <v>9.682337248257713</v>
+        <v>110.03246296792</v>
       </c>
       <c r="S17">
-        <v>0.0009173974092218818</v>
+        <v>0.0008093928755416029</v>
       </c>
       <c r="T17">
-        <v>0.0009173974092218818</v>
+        <v>0.000809392875541603</v>
       </c>
     </row>
   </sheetData>
